--- a/docs/BirthAndFetalDeathFinancialClassCM.xlsx
+++ b/docs/BirthAndFetalDeathFinancialClassCM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/bfdr/CodeSystem/CodeSystem-local-bfdr-codes</t>
+    <t>https://nahdo.org/sopt</t>
   </si>
   <si>
     <t>1</t>
@@ -129,19 +129,16 @@
     <t>equivalent</t>
   </si>
   <si>
-    <t>finclass_medicaid</t>
+    <t>2</t>
   </si>
   <si>
     <t>MEDICAID</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Private Insurance</t>
   </si>
   <si>
-    <t>finclass_privateinsurance</t>
+    <t>5</t>
   </si>
   <si>
     <t>PRIVATE HEALTH INSURANCE</t>
@@ -153,7 +150,10 @@
     <t>Self-pay</t>
   </si>
   <si>
-    <t>finclass_selfpay</t>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Self-pay (Includes applicants for insurance and Medicaid applicants)</t>
   </si>
   <si>
     <t>4</t>
@@ -162,19 +162,16 @@
     <t>Indian Health Service</t>
   </si>
   <si>
-    <t>finclass_indianhealth</t>
+    <t>33</t>
   </si>
   <si>
     <t>Indian Health Service or Tribe</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>CHAMPUS/TRICARE</t>
   </si>
   <si>
-    <t>finclass_tricare</t>
+    <t>311</t>
   </si>
   <si>
     <t>TRICARE (CHAMPUS)</t>
@@ -186,7 +183,7 @@
     <t>Other Government (Fed, State, Local)</t>
   </si>
   <si>
-    <t>finclass_othergov</t>
+    <t>38</t>
   </si>
   <si>
     <t>Other Government (Federal, State, Local not specified)</t>
@@ -198,7 +195,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>finclass_nosource</t>
+    <t>99</t>
   </si>
   <si>
     <t>No Typology Code available for payment source</t>
@@ -210,10 +207,10 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>finclass_unknown</t>
-  </si>
-  <si>
-    <t>Unavailable / Unknown</t>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Unavailable / No Payer Specified / Blank</t>
   </si>
 </sst>
 </file>
@@ -541,36 +538,36 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -592,70 +589,70 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="2">
+      <c r="E8" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="E9" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="E10" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/BirthAndFetalDeathFinancialClassCM.xlsx
+++ b/docs/BirthAndFetalDeathFinancialClassCM.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/BirthAndFetalDeathFinancialClassCM.xlsx
+++ b/docs/BirthAndFetalDeathFinancialClassCM.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
